--- a/labor-timekeeper/exports/2026-01/2026-01-14/Boban_Abbate_2026-01-14.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-14/Boban_Abbate_2026-01-14.xlsx
@@ -4,17 +4,45 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Weekly Timesheet" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Jason Schema" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="22">
+  <si>
+    <t>Boban Abbate  —  1/14/26 - 1/20/26</t>
+  </si>
+  <si>
+    <t>Boban Abbate</t>
+  </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Time Start</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Time Out</t>
+  </si>
+  <si>
+    <t>Hours Per Job</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Client</t>
@@ -23,64 +51,34 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Rate</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>2026-01-14</t>
+    <t>TOTAL:</t>
   </si>
   <si>
-    <t>Bailey</t>
+    <t>Total:</t>
   </si>
   <si>
-    <t>Regular</t>
+    <t>OFFICE USE ONLY:</t>
   </si>
   <si>
-    <t>Cobb</t>
+    <t>1/14/26 - 1/20/26</t>
   </si>
   <si>
-    <t>Funke</t>
+    <t>JOB</t>
   </si>
   <si>
-    <t>SUBTOTAL</t>
+    <t>HOURS</t>
   </si>
   <si>
-    <t/>
+    <t>RATE</t>
   </si>
   <si>
-    <t>Reg: 24 / OT: 0</t>
-  </si>
-  <si>
-    <t>Category: HOURLY</t>
-  </si>
-  <si>
-    <t>HOURLY SUBTOTAL</t>
-  </si>
-  <si>
-    <t>ADMIN SUBTOTAL</t>
-  </si>
-  <si>
-    <t>GRAND TOTAL</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Boban Abbate</t>
-  </si>
-  <si>
-    <t>emp_ga4rqytu</t>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -90,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -100,13 +98,17 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,26 +117,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0E0E0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE0B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF3E0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F8E0"/>
+        <fgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,23 +129,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,6 +188,94 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="857250" cy="266700"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="857250" cy="266700"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,336 +600,1617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="1" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="12" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="24" customHeight="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="H2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="J2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="K2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="L2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="16">
+        <f>IF(I3="","",SUMIF($B$3:$B$39,TRIM(I3),$F$3:$F$39))</f>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="20">
+        <f>IF(OR(J3="",K3=""),"",J3*K3)</f>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="16">
+        <f>IF(I4="","",SUMIF($B$3:$B$39,TRIM(I4),$F$3:$F$39))</f>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="20">
+        <f>IF(OR(J4="",K4=""),"",J4*K4)</f>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="16">
+        <f>IF(I5="","",SUMIF($B$3:$B$39,TRIM(I5),$F$3:$F$39))</f>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="20">
+        <f>IF(OR(J5="",K5=""),"",J5*K5)</f>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="16">
+        <f>IF(I6="","",SUMIF($B$3:$B$39,TRIM(I6),$F$3:$F$39))</f>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="20">
+        <f>IF(OR(J6="",K6=""),"",J6*K6)</f>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="16">
+        <f>IF(I7="","",SUMIF($B$3:$B$39,TRIM(I7),$F$3:$F$39))</f>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="20">
+        <f>IF(OR(J7="",K7=""),"",J7*K7)</f>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="16">
+        <f>IF(I8="","",SUMIF($B$3:$B$39,TRIM(I8),$F$3:$F$39))</f>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="20">
+        <f>IF(OR(J8="",K8=""),"",J8*K8)</f>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="16">
+        <f>IF(I9="","",SUMIF($B$3:$B$39,TRIM(I9),$F$3:$F$39))</f>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="20">
+        <f>IF(OR(J9="",K9=""),"",J9*K9)</f>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="16">
+        <f>IF(I10="","",SUMIF($B$3:$B$39,TRIM(I10),$F$3:$F$39))</f>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="20">
+        <f>IF(OR(J10="",K10=""),"",J10*K10)</f>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="16">
+        <f>IF(I11="","",SUMIF($B$3:$B$39,TRIM(I11),$F$3:$F$39))</f>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="20">
+        <f>IF(OR(J11="",K11=""),"",J11*K11)</f>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="16">
+        <f>IF(I12="","",SUMIF($B$3:$B$39,TRIM(I12),$F$3:$F$39))</f>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="20">
+        <f>IF(OR(J12="",K12=""),"",J12*K12)</f>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="16">
+        <f>IF(I13="","",SUMIF($B$3:$B$39,TRIM(I13),$F$3:$F$39))</f>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="20">
+        <f>IF(OR(J13="",K13=""),"",J13*K13)</f>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="16">
+        <f>IF(I14="","",SUMIF($B$3:$B$39,TRIM(I14),$F$3:$F$39))</f>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="20">
+        <f>IF(OR(J14="",K14=""),"",J14*K14)</f>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="16">
+        <f>IF(I15="","",SUMIF($B$3:$B$39,TRIM(I15),$F$3:$F$39))</f>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="20">
+        <f>IF(OR(J15="",K15=""),"",J15*K15)</f>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="16">
+        <f>IF(I16="","",SUMIF($B$3:$B$39,TRIM(I16),$F$3:$F$39))</f>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="20">
+        <f>IF(OR(J16="",K16=""),"",J16*K16)</f>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="16">
+        <f>IF(I17="","",SUMIF($B$3:$B$39,TRIM(I17),$F$3:$F$39))</f>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="20">
+        <f>IF(OR(J17="",K17=""),"",J17*K17)</f>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="16">
+        <f>IF(I18="","",SUMIF($B$3:$B$39,TRIM(I18),$F$3:$F$39))</f>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="20">
+        <f>IF(OR(J18="",K18=""),"",J18*K18)</f>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="16">
+        <f>IF(I19="","",SUMIF($B$3:$B$39,TRIM(I19),$F$3:$F$39))</f>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="20">
+        <f>IF(OR(J19="",K19=""),"",J19*K19)</f>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="16">
+        <f>IF(I20="","",SUMIF($B$3:$B$39,TRIM(I20),$F$3:$F$39))</f>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="20">
+        <f>IF(OR(J20="",K20=""),"",J20*K20)</f>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="16">
+        <f>IF(I21="","",SUMIF($B$3:$B$39,TRIM(I21),$F$3:$F$39))</f>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="20">
+        <f>IF(OR(J21="",K21=""),"",J21*K21)</f>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="J22" s="16">
+        <f>SUM(J3:J21)</f>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="20">
+        <f>IF(OR(J22="",K22=""),"",J22*K22)</f>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
+      <c r="F40" s="19">
+        <f>SUM(F3:F39)</f>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" fitToWidth="1" fitToHeight="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="24" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
